--- a/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/D501-D701_unmapped-BC-analysis.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/D501-D701_unmapped-BC-analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -31,286 +31,271 @@
     <t>Distance</t>
   </si>
   <si>
+    <t>l10Sp</t>
+  </si>
+  <si>
+    <t>l5Sp</t>
+  </si>
+  <si>
+    <t>l4Sp</t>
+  </si>
+  <si>
+    <t>l9Sp</t>
+  </si>
+  <si>
+    <t>l1Sp</t>
+  </si>
+  <si>
+    <t>l8Sp</t>
+  </si>
+  <si>
+    <t>l6Sp</t>
+  </si>
+  <si>
+    <t>l7Sp</t>
+  </si>
+  <si>
+    <t>l2Sp</t>
+  </si>
+  <si>
+    <t>l3Sp</t>
+  </si>
+  <si>
+    <t>l11Sp</t>
+  </si>
+  <si>
     <t>l12Sp</t>
   </si>
   <si>
-    <t>l4Sp</t>
-  </si>
-  <si>
-    <t>l9Sp</t>
-  </si>
-  <si>
-    <t>l10Sp</t>
-  </si>
-  <si>
-    <t>l6Sp</t>
-  </si>
-  <si>
-    <t>l5Sp</t>
-  </si>
-  <si>
-    <t>l8Sp</t>
-  </si>
-  <si>
-    <t>l3Sp</t>
-  </si>
-  <si>
-    <t>l1Sp</t>
-  </si>
-  <si>
-    <t>l7Sp</t>
-  </si>
-  <si>
-    <t>l2Sp</t>
-  </si>
-  <si>
-    <t>l11Sp</t>
+    <t>CATGA</t>
+  </si>
+  <si>
+    <t>TGCGA</t>
+  </si>
+  <si>
+    <t>CTGAT</t>
+  </si>
+  <si>
+    <t>TACAG</t>
+  </si>
+  <si>
+    <t>GACTA</t>
+  </si>
+  <si>
+    <t>GCATC</t>
+  </si>
+  <si>
+    <t>AGCTG</t>
+  </si>
+  <si>
+    <t>GTGAC</t>
+  </si>
+  <si>
+    <t>AGTGC</t>
+  </si>
+  <si>
+    <t>TCACG</t>
+  </si>
+  <si>
+    <t>CGATA</t>
   </si>
   <si>
     <t>GTACA</t>
   </si>
   <si>
-    <t>CTGAT</t>
-  </si>
-  <si>
-    <t>TACAG</t>
-  </si>
-  <si>
-    <t>CATGA</t>
-  </si>
-  <si>
-    <t>AGCTG</t>
-  </si>
-  <si>
-    <t>TGCGA</t>
-  </si>
-  <si>
-    <t>GCATC</t>
-  </si>
-  <si>
-    <t>TCACG</t>
-  </si>
-  <si>
-    <t>GACTA</t>
-  </si>
-  <si>
-    <t>GTGAC</t>
-  </si>
-  <si>
-    <t>AGTGC</t>
-  </si>
-  <si>
-    <t>CGATA</t>
+    <t>TGCCA</t>
   </si>
   <si>
     <t>TGCAA</t>
   </si>
   <si>
-    <t>TGCCA</t>
+    <t>TGCTG</t>
   </si>
   <si>
     <t>CATGC</t>
   </si>
   <si>
-    <t>TGCTG</t>
-  </si>
-  <si>
     <t>CTGAG</t>
   </si>
   <si>
+    <t>TGCTA</t>
+  </si>
+  <si>
+    <t>CTGCT</t>
+  </si>
+  <si>
+    <t>CTTAT</t>
+  </si>
+  <si>
+    <t>TACTA</t>
+  </si>
+  <si>
+    <t>TCAAG</t>
+  </si>
+  <si>
+    <t>TGGGA</t>
+  </si>
+  <si>
+    <t>AATGC</t>
+  </si>
+  <si>
+    <t>TCATG</t>
+  </si>
+  <si>
+    <t>CTCAT</t>
+  </si>
+  <si>
+    <t>CTGGT</t>
+  </si>
+  <si>
+    <t>GCCTA</t>
+  </si>
+  <si>
+    <t>AACTA</t>
+  </si>
+  <si>
+    <t>ATTGC</t>
+  </si>
+  <si>
+    <t>TCTCG</t>
+  </si>
+  <si>
+    <t>ACACG</t>
+  </si>
+  <si>
+    <t>TTGAT</t>
+  </si>
+  <si>
+    <t>CTGAA</t>
+  </si>
+  <si>
+    <t>GTGAT</t>
+  </si>
+  <si>
+    <t>CTAAT</t>
+  </si>
+  <si>
+    <t>TGCGT</t>
+  </si>
+  <si>
+    <t>ACATC</t>
+  </si>
+  <si>
+    <t>CATAA</t>
+  </si>
+  <si>
+    <t>GATGA</t>
+  </si>
+  <si>
+    <t>CAATA</t>
+  </si>
+  <si>
+    <t>GTTCA</t>
+  </si>
+  <si>
+    <t>GACGA</t>
+  </si>
+  <si>
     <t>CACTA</t>
   </si>
   <si>
-    <t>CCGAT</t>
-  </si>
-  <si>
-    <t>AACTA</t>
-  </si>
-  <si>
-    <t>TCCCG</t>
+    <t>GGCTA</t>
+  </si>
+  <si>
+    <t>GGTGC</t>
+  </si>
+  <si>
+    <t>AGGGC</t>
+  </si>
+  <si>
+    <t>ACTGC</t>
+  </si>
+  <si>
+    <t>AGTGT</t>
+  </si>
+  <si>
+    <t>CCACG</t>
+  </si>
+  <si>
+    <t>TCACT</t>
+  </si>
+  <si>
+    <t>TCACC</t>
+  </si>
+  <si>
+    <t>TCACA</t>
+  </si>
+  <si>
+    <t>ATGAT</t>
+  </si>
+  <si>
+    <t>CTGAC</t>
   </si>
   <si>
     <t>CAGAT</t>
   </si>
   <si>
-    <t>TGCTA</t>
-  </si>
-  <si>
-    <t>TGGGA</t>
-  </si>
-  <si>
-    <t>ACATC</t>
-  </si>
-  <si>
-    <t>GATTA</t>
-  </si>
-  <si>
-    <t>TACTA</t>
-  </si>
-  <si>
-    <t>AGTGA</t>
-  </si>
-  <si>
-    <t>GGTGC</t>
-  </si>
-  <si>
-    <t>AGTCC</t>
-  </si>
-  <si>
-    <t>AGTTC</t>
-  </si>
-  <si>
-    <t>TCAAG</t>
-  </si>
-  <si>
-    <t>TCACT</t>
-  </si>
-  <si>
-    <t>TCACA</t>
-  </si>
-  <si>
-    <t>CTGCT</t>
-  </si>
-  <si>
-    <t>CTTAT</t>
-  </si>
-  <si>
-    <t>ACCTG</t>
-  </si>
-  <si>
-    <t>TACAA</t>
-  </si>
-  <si>
-    <t>GATGA</t>
-  </si>
-  <si>
-    <t>CAATA</t>
-  </si>
-  <si>
-    <t>CGGTA</t>
-  </si>
-  <si>
-    <t>GGATA</t>
-  </si>
-  <si>
-    <t>GCACA</t>
-  </si>
-  <si>
-    <t>GTACT</t>
-  </si>
-  <si>
-    <t>GTCTA</t>
-  </si>
-  <si>
-    <t>GACTG</t>
-  </si>
-  <si>
-    <t>GGCTA</t>
-  </si>
-  <si>
-    <t>GACTT</t>
-  </si>
-  <si>
-    <t>CGTGC</t>
-  </si>
-  <si>
-    <t>TGTGC</t>
-  </si>
-  <si>
-    <t>ACTGC</t>
-  </si>
-  <si>
-    <t>AGTAC</t>
-  </si>
-  <si>
-    <t>AGTGG</t>
-  </si>
-  <si>
-    <t>AATGC</t>
-  </si>
-  <si>
-    <t>AGTGT</t>
-  </si>
-  <si>
-    <t>GCACG</t>
-  </si>
-  <si>
     <t>CTGTT</t>
   </si>
   <si>
-    <t>CGGAT</t>
-  </si>
-  <si>
-    <t>GTGAT</t>
-  </si>
-  <si>
-    <t>CTCAT</t>
-  </si>
-  <si>
-    <t>CTAAT</t>
-  </si>
-  <si>
-    <t>CTGGT</t>
+    <t>GGCGA</t>
   </si>
   <si>
     <t>TGAGA</t>
   </si>
   <si>
-    <t>TGCGG</t>
-  </si>
-  <si>
-    <t>AGGTG</t>
-  </si>
-  <si>
-    <t>AGCGG</t>
-  </si>
-  <si>
-    <t>GCATT</t>
+    <t>GGCTG</t>
+  </si>
+  <si>
+    <t>AGATG</t>
+  </si>
+  <si>
+    <t>GTAAC</t>
+  </si>
+  <si>
+    <t>GTTAC</t>
+  </si>
+  <si>
+    <t>TCATC</t>
   </si>
   <si>
     <t>GCATA</t>
   </si>
   <si>
+    <t>TCCAG</t>
+  </si>
+  <si>
+    <t>TACAT</t>
+  </si>
+  <si>
     <t>CACAG</t>
   </si>
   <si>
-    <t>TAATA</t>
-  </si>
-  <si>
-    <t>CCCTA</t>
-  </si>
-  <si>
-    <t>AACCA</t>
-  </si>
-  <si>
-    <t>GTTTA</t>
-  </si>
-  <si>
-    <t>TTCTA</t>
-  </si>
-  <si>
-    <t>AACTC</t>
-  </si>
-  <si>
     <t>TATTA</t>
   </si>
   <si>
-    <t>ATTGT</t>
-  </si>
-  <si>
-    <t>AGGGA</t>
-  </si>
-  <si>
-    <t>AATTC</t>
+    <t>GTCGA</t>
+  </si>
+  <si>
+    <t>GAATT</t>
+  </si>
+  <si>
+    <t>AACTT</t>
+  </si>
+  <si>
+    <t>TTATG</t>
+  </si>
+  <si>
+    <t>TAACC</t>
   </si>
   <si>
     <t>TCATT</t>
   </si>
   <si>
-    <t>TGTCG</t>
-  </si>
-  <si>
-    <t>TGGGT</t>
+    <t>TCTCT</t>
+  </si>
+  <si>
+    <t>TTGGT</t>
   </si>
 </sst>
 </file>
@@ -668,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,7 +690,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -725,7 +710,7 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -745,7 +730,7 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -765,7 +750,7 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -785,7 +770,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -805,7 +790,7 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -825,7 +810,7 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -845,7 +830,7 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -885,7 +870,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -905,7 +890,7 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -916,16 +901,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
       <c r="E13">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -936,16 +921,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
       <c r="E14">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -956,16 +941,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -976,16 +961,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -996,16 +981,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1016,16 +1001,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
         <v>34</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1036,16 +1021,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1056,16 +1041,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1076,16 +1061,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1096,16 +1081,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1116,16 +1101,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1136,10 +1121,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
@@ -1156,10 +1141,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>41</v>
@@ -1176,16 +1161,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>42</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1196,16 +1181,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1216,10 +1201,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
         <v>44</v>
@@ -1236,10 +1221,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
         <v>45</v>
@@ -1256,10 +1241,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
@@ -1276,10 +1261,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -1296,10 +1281,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
         <v>48</v>
@@ -1316,10 +1301,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
         <v>49</v>
@@ -1336,10 +1321,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
         <v>50</v>
@@ -1356,10 +1341,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
         <v>51</v>
@@ -1376,10 +1361,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
         <v>52</v>
@@ -1396,10 +1381,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
         <v>53</v>
@@ -1416,10 +1401,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
@@ -1436,10 +1421,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
         <v>55</v>
@@ -1456,10 +1441,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
         <v>56</v>
@@ -1476,10 +1461,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>57</v>
@@ -1516,10 +1501,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
         <v>59</v>
@@ -1536,10 +1521,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
         <v>60</v>
@@ -1556,10 +1541,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
         <v>61</v>
@@ -1636,10 +1621,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
         <v>65</v>
@@ -1656,10 +1641,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" t="s">
         <v>66</v>
@@ -1676,10 +1661,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
         <v>67</v>
@@ -1696,10 +1681,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" t="s">
         <v>68</v>
@@ -1716,10 +1701,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
         <v>69</v>
@@ -1736,10 +1721,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
         <v>70</v>
@@ -1756,10 +1741,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
         <v>71</v>
@@ -1776,10 +1761,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
         <v>72</v>
@@ -1796,10 +1781,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
@@ -1856,10 +1841,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
         <v>76</v>
@@ -1876,10 +1861,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D61" t="s">
         <v>77</v>
@@ -1896,10 +1881,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
         <v>78</v>
@@ -1916,10 +1901,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
@@ -1956,10 +1941,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
@@ -1976,10 +1961,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
         <v>82</v>
@@ -1996,10 +1981,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
         <v>83</v>
@@ -2016,10 +2001,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
         <v>84</v>
@@ -2036,19 +2021,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
         <v>85</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2056,16 +2041,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
         <v>86</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -2076,10 +2061,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
         <v>87</v>
@@ -2096,10 +2081,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s">
         <v>88</v>
@@ -2116,10 +2101,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
         <v>89</v>
@@ -2136,10 +2121,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D74" t="s">
         <v>90</v>
@@ -2156,10 +2141,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
         <v>91</v>
@@ -2176,10 +2161,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
         <v>92</v>
@@ -2196,10 +2181,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
         <v>93</v>
@@ -2208,106 +2193,6 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" t="s">
-        <v>27</v>
-      </c>
-      <c r="D78" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" t="s">
-        <v>27</v>
-      </c>
-      <c r="D79" t="s">
-        <v>95</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" t="s">
-        <v>96</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" t="s">
-        <v>97</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" t="s">
-        <v>98</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
         <v>2</v>
       </c>
     </row>

--- a/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/D501-D701_unmapped-BC-analysis.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/D501-D701_unmapped-BC-analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -52,15 +52,15 @@
     <t>l6Sp</t>
   </si>
   <si>
+    <t>l3Sp</t>
+  </si>
+  <si>
+    <t>l2Sp</t>
+  </si>
+  <si>
     <t>l7Sp</t>
   </si>
   <si>
-    <t>l2Sp</t>
-  </si>
-  <si>
-    <t>l3Sp</t>
-  </si>
-  <si>
     <t>l11Sp</t>
   </si>
   <si>
@@ -88,15 +88,15 @@
     <t>AGCTG</t>
   </si>
   <si>
+    <t>TCACG</t>
+  </si>
+  <si>
+    <t>AGTGC</t>
+  </si>
+  <si>
     <t>GTGAC</t>
   </si>
   <si>
-    <t>AGTGC</t>
-  </si>
-  <si>
-    <t>TCACG</t>
-  </si>
-  <si>
     <t>CGATA</t>
   </si>
   <si>
@@ -109,30 +109,30 @@
     <t>TGCAA</t>
   </si>
   <si>
+    <t>CATGC</t>
+  </si>
+  <si>
     <t>TGCTG</t>
   </si>
   <si>
-    <t>CATGC</t>
+    <t>CTGCT</t>
   </si>
   <si>
     <t>CTGAG</t>
   </si>
   <si>
+    <t>TACTA</t>
+  </si>
+  <si>
+    <t>TCAAG</t>
+  </si>
+  <si>
+    <t>CTTAT</t>
+  </si>
+  <si>
     <t>TGCTA</t>
   </si>
   <si>
-    <t>CTGCT</t>
-  </si>
-  <si>
-    <t>CTTAT</t>
-  </si>
-  <si>
-    <t>TACTA</t>
-  </si>
-  <si>
-    <t>TCAAG</t>
-  </si>
-  <si>
     <t>TGGGA</t>
   </si>
   <si>
@@ -157,67 +157,79 @@
     <t>ATTGC</t>
   </si>
   <si>
+    <t>ACACG</t>
+  </si>
+  <si>
+    <t>TTGAT</t>
+  </si>
+  <si>
+    <t>CTGAA</t>
+  </si>
+  <si>
+    <t>GTGAT</t>
+  </si>
+  <si>
+    <t>CTAAT</t>
+  </si>
+  <si>
+    <t>TGCGT</t>
+  </si>
+  <si>
+    <t>ACATC</t>
+  </si>
+  <si>
+    <t>CATAA</t>
+  </si>
+  <si>
+    <t>GATGA</t>
+  </si>
+  <si>
+    <t>CAATA</t>
+  </si>
+  <si>
+    <t>GTTCA</t>
+  </si>
+  <si>
+    <t>GACGA</t>
+  </si>
+  <si>
+    <t>CACTA</t>
+  </si>
+  <si>
+    <t>GTCTA</t>
+  </si>
+  <si>
+    <t>GGCTA</t>
+  </si>
+  <si>
+    <t>AGTGG</t>
+  </si>
+  <si>
+    <t>GGTGC</t>
+  </si>
+  <si>
+    <t>AGGGC</t>
+  </si>
+  <si>
+    <t>ACTGC</t>
+  </si>
+  <si>
+    <t>AGTGT</t>
+  </si>
+  <si>
+    <t>TCAGG</t>
+  </si>
+  <si>
+    <t>CCACG</t>
+  </si>
+  <si>
+    <t>TCACT</t>
+  </si>
+  <si>
     <t>TCTCG</t>
   </si>
   <si>
-    <t>ACACG</t>
-  </si>
-  <si>
-    <t>TTGAT</t>
-  </si>
-  <si>
-    <t>CTGAA</t>
-  </si>
-  <si>
-    <t>GTGAT</t>
-  </si>
-  <si>
-    <t>CTAAT</t>
-  </si>
-  <si>
-    <t>TGCGT</t>
-  </si>
-  <si>
-    <t>ACATC</t>
-  </si>
-  <si>
-    <t>CATAA</t>
-  </si>
-  <si>
-    <t>GATGA</t>
-  </si>
-  <si>
-    <t>CAATA</t>
-  </si>
-  <si>
-    <t>GTTCA</t>
-  </si>
-  <si>
-    <t>GACGA</t>
-  </si>
-  <si>
-    <t>CACTA</t>
-  </si>
-  <si>
-    <t>GGCTA</t>
-  </si>
-  <si>
-    <t>GGTGC</t>
-  </si>
-  <si>
-    <t>AGGGC</t>
-  </si>
-  <si>
-    <t>ACTGC</t>
-  </si>
-  <si>
-    <t>AGTGT</t>
-  </si>
-  <si>
-    <t>CCACG</t>
-  </si>
-  <si>
-    <t>TCACT</t>
+    <t>GCACG</t>
   </si>
   <si>
     <t>TCACC</t>
@@ -241,9 +253,6 @@
     <t>GGCGA</t>
   </si>
   <si>
-    <t>TGAGA</t>
-  </si>
-  <si>
     <t>GGCTG</t>
   </si>
   <si>
@@ -256,6 +265,9 @@
     <t>GTTAC</t>
   </si>
   <si>
+    <t>GCATG</t>
+  </si>
+  <si>
     <t>TCATC</t>
   </si>
   <si>
@@ -290,9 +302,6 @@
   </si>
   <si>
     <t>TCATT</t>
-  </si>
-  <si>
-    <t>TCTCT</t>
   </si>
   <si>
     <t>TTGGT</t>
@@ -653,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,7 +699,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -710,7 +719,7 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -730,7 +739,7 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -810,7 +819,7 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -850,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -870,7 +879,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -910,7 +919,7 @@
         <v>29</v>
       </c>
       <c r="E13">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -941,16 +950,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -961,10 +970,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
@@ -990,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1001,16 +1010,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>34</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1021,16 +1030,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1041,16 +1050,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1061,10 +1070,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
@@ -1081,10 +1090,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
@@ -1141,10 +1150,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>41</v>
@@ -1261,10 +1270,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -1281,10 +1290,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
         <v>48</v>
@@ -1361,10 +1370,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
         <v>52</v>
@@ -1381,10 +1390,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
         <v>53</v>
@@ -1401,16 +1410,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1441,10 +1450,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
         <v>56</v>
@@ -1461,10 +1470,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
         <v>57</v>
@@ -1481,10 +1490,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
         <v>58</v>
@@ -1641,10 +1650,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
         <v>66</v>
@@ -1661,10 +1670,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
         <v>67</v>
@@ -1681,10 +1690,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
         <v>68</v>
@@ -1701,10 +1710,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
         <v>69</v>
@@ -1721,10 +1730,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
         <v>70</v>
@@ -1741,10 +1750,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
         <v>71</v>
@@ -1761,10 +1770,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
         <v>72</v>
@@ -1781,10 +1790,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
@@ -1801,10 +1810,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
         <v>74</v>
@@ -1821,10 +1830,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
         <v>75</v>
@@ -1841,10 +1850,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
         <v>76</v>
@@ -1861,10 +1870,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
         <v>77</v>
@@ -1881,10 +1890,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
         <v>78</v>
@@ -1901,10 +1910,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
@@ -1921,10 +1930,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D64" t="s">
         <v>80</v>
@@ -1941,10 +1950,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
@@ -1961,10 +1970,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
         <v>82</v>
@@ -1981,10 +1990,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
         <v>83</v>
@@ -2001,10 +2010,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
         <v>84</v>
@@ -2021,19 +2030,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s">
         <v>85</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2041,10 +2050,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
         <v>86</v>
@@ -2053,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2061,10 +2070,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s">
         <v>87</v>
@@ -2073,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2081,10 +2090,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s">
         <v>88</v>
@@ -2093,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2101,16 +2110,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
         <v>89</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -2121,10 +2130,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
         <v>90</v>
@@ -2141,10 +2150,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
         <v>91</v>
@@ -2161,10 +2170,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
         <v>92</v>
@@ -2181,10 +2190,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
         <v>93</v>
@@ -2193,6 +2202,66 @@
         <v>1</v>
       </c>
       <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" t="s">
+        <v>96</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
         <v>2</v>
       </c>
     </row>

--- a/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/D501-D701_unmapped-BC-analysis.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/D501-D701_unmapped-BC-analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -43,21 +43,21 @@
     <t>l9Sp</t>
   </si>
   <si>
+    <t>l8Sp</t>
+  </si>
+  <si>
     <t>l1Sp</t>
   </si>
   <si>
-    <t>l8Sp</t>
-  </si>
-  <si>
     <t>l6Sp</t>
   </si>
   <si>
+    <t>l2Sp</t>
+  </si>
+  <si>
     <t>l3Sp</t>
   </si>
   <si>
-    <t>l2Sp</t>
-  </si>
-  <si>
     <t>l7Sp</t>
   </si>
   <si>
@@ -79,21 +79,21 @@
     <t>TACAG</t>
   </si>
   <si>
+    <t>GCATC</t>
+  </si>
+  <si>
     <t>GACTA</t>
   </si>
   <si>
-    <t>GCATC</t>
-  </si>
-  <si>
     <t>AGCTG</t>
   </si>
   <si>
+    <t>AGTGC</t>
+  </si>
+  <si>
     <t>TCACG</t>
   </si>
   <si>
-    <t>AGTGC</t>
-  </si>
-  <si>
     <t>GTGAC</t>
   </si>
   <si>
@@ -118,6 +118,9 @@
     <t>CTGCT</t>
   </si>
   <si>
+    <t>CTTAT</t>
+  </si>
+  <si>
     <t>CTGAG</t>
   </si>
   <si>
@@ -127,15 +130,12 @@
     <t>TCAAG</t>
   </si>
   <si>
-    <t>CTTAT</t>
+    <t>TGGGA</t>
   </si>
   <si>
     <t>TGCTA</t>
   </si>
   <si>
-    <t>TGGGA</t>
-  </si>
-  <si>
     <t>AATGC</t>
   </si>
   <si>
@@ -145,108 +145,105 @@
     <t>CTCAT</t>
   </si>
   <si>
+    <t>GCCTA</t>
+  </si>
+  <si>
+    <t>AACTA</t>
+  </si>
+  <si>
+    <t>ATTGC</t>
+  </si>
+  <si>
+    <t>TCTCG</t>
+  </si>
+  <si>
+    <t>ACACG</t>
+  </si>
+  <si>
     <t>CTGGT</t>
   </si>
   <si>
-    <t>GCCTA</t>
-  </si>
-  <si>
-    <t>AACTA</t>
-  </si>
-  <si>
-    <t>ATTGC</t>
-  </si>
-  <si>
-    <t>ACACG</t>
-  </si>
-  <si>
     <t>TTGAT</t>
   </si>
   <si>
     <t>CTGAA</t>
   </si>
   <si>
+    <t>TGCGT</t>
+  </si>
+  <si>
+    <t>ACATC</t>
+  </si>
+  <si>
+    <t>TACAT</t>
+  </si>
+  <si>
+    <t>CATAA</t>
+  </si>
+  <si>
+    <t>GATGA</t>
+  </si>
+  <si>
+    <t>CAATA</t>
+  </si>
+  <si>
+    <t>GTTCA</t>
+  </si>
+  <si>
+    <t>GACGA</t>
+  </si>
+  <si>
+    <t>CACTA</t>
+  </si>
+  <si>
+    <t>GGCTA</t>
+  </si>
+  <si>
+    <t>AGTGG</t>
+  </si>
+  <si>
+    <t>GGTGC</t>
+  </si>
+  <si>
+    <t>AGGGC</t>
+  </si>
+  <si>
+    <t>ACTGC</t>
+  </si>
+  <si>
+    <t>AGTGT</t>
+  </si>
+  <si>
+    <t>CCACG</t>
+  </si>
+  <si>
+    <t>TCACT</t>
+  </si>
+  <si>
+    <t>GCACG</t>
+  </si>
+  <si>
+    <t>TCACC</t>
+  </si>
+  <si>
+    <t>TCACA</t>
+  </si>
+  <si>
+    <t>ATGAT</t>
+  </si>
+  <si>
+    <t>CTGAC</t>
+  </si>
+  <si>
+    <t>CAGAT</t>
+  </si>
+  <si>
     <t>GTGAT</t>
   </si>
   <si>
     <t>CTAAT</t>
   </si>
   <si>
-    <t>TGCGT</t>
-  </si>
-  <si>
-    <t>ACATC</t>
-  </si>
-  <si>
-    <t>CATAA</t>
-  </si>
-  <si>
-    <t>GATGA</t>
-  </si>
-  <si>
-    <t>CAATA</t>
-  </si>
-  <si>
-    <t>GTTCA</t>
-  </si>
-  <si>
-    <t>GACGA</t>
-  </si>
-  <si>
-    <t>CACTA</t>
-  </si>
-  <si>
-    <t>GTCTA</t>
-  </si>
-  <si>
-    <t>GGCTA</t>
-  </si>
-  <si>
-    <t>AGTGG</t>
-  </si>
-  <si>
-    <t>GGTGC</t>
-  </si>
-  <si>
-    <t>AGGGC</t>
-  </si>
-  <si>
-    <t>ACTGC</t>
-  </si>
-  <si>
-    <t>AGTGT</t>
-  </si>
-  <si>
-    <t>TCAGG</t>
-  </si>
-  <si>
-    <t>CCACG</t>
-  </si>
-  <si>
-    <t>TCACT</t>
-  </si>
-  <si>
-    <t>TCTCG</t>
-  </si>
-  <si>
-    <t>GCACG</t>
-  </si>
-  <si>
-    <t>TCACC</t>
-  </si>
-  <si>
-    <t>TCACA</t>
-  </si>
-  <si>
-    <t>ATGAT</t>
-  </si>
-  <si>
-    <t>CTGAC</t>
-  </si>
-  <si>
-    <t>CAGAT</t>
-  </si>
-  <si>
     <t>CTGTT</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
   </si>
   <si>
     <t>TCCAG</t>
-  </si>
-  <si>
-    <t>TACAT</t>
   </si>
   <si>
     <t>CACAG</t>
@@ -662,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -739,7 +733,7 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -759,7 +753,7 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -799,7 +793,7 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -819,7 +813,7 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -839,7 +833,7 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -859,7 +853,7 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -919,7 +913,7 @@
         <v>29</v>
       </c>
       <c r="E13">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -959,7 +953,7 @@
         <v>31</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1030,16 +1024,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1050,10 +1044,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -1070,10 +1064,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
@@ -1099,7 +1093,7 @@
         <v>38</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1130,10 +1124,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
@@ -1150,10 +1144,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>41</v>
@@ -1190,16 +1184,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1210,10 +1204,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
         <v>44</v>
@@ -1230,10 +1224,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
         <v>45</v>
@@ -1270,10 +1264,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -1350,10 +1344,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
         <v>51</v>
@@ -1370,10 +1364,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
         <v>52</v>
@@ -1390,10 +1384,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
         <v>53</v>
@@ -1490,10 +1484,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
         <v>58</v>
@@ -1510,10 +1504,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
         <v>59</v>
@@ -1530,10 +1524,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
         <v>60</v>
@@ -1550,10 +1544,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
         <v>61</v>
@@ -1570,10 +1564,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
         <v>62</v>
@@ -1590,10 +1584,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
         <v>63</v>
@@ -1610,10 +1604,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48" t="s">
         <v>64</v>
@@ -1630,10 +1624,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
         <v>65</v>
@@ -1670,10 +1664,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
         <v>67</v>
@@ -1690,10 +1684,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
         <v>68</v>
@@ -1710,10 +1704,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
         <v>69</v>
@@ -1730,10 +1724,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
         <v>70</v>
@@ -1750,10 +1744,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
         <v>71</v>
@@ -1770,10 +1764,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
         <v>72</v>
@@ -1790,10 +1784,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
@@ -1870,10 +1864,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
         <v>77</v>
@@ -1890,10 +1884,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
         <v>78</v>
@@ -1930,10 +1924,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
         <v>80</v>
@@ -1970,10 +1964,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
         <v>82</v>
@@ -1990,10 +1984,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s">
         <v>83</v>
@@ -2010,10 +2004,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
         <v>84</v>
@@ -2030,10 +2024,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
         <v>85</v>
@@ -2070,10 +2064,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
         <v>87</v>
@@ -2082,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2090,10 +2084,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s">
         <v>88</v>
@@ -2102,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2110,16 +2104,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D73" t="s">
         <v>89</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -2130,10 +2124,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D74" t="s">
         <v>90</v>
@@ -2150,10 +2144,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D75" t="s">
         <v>91</v>
@@ -2170,10 +2164,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D76" t="s">
         <v>92</v>
@@ -2190,10 +2184,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D77" t="s">
         <v>93</v>
@@ -2210,10 +2204,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
         <v>94</v>
@@ -2222,46 +2216,6 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" t="s">
-        <v>95</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" t="s">
-        <v>96</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
         <v>2</v>
       </c>
     </row>

--- a/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/D501-D701_unmapped-BC-analysis.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/D501-D701_unmapped-BC-analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -43,24 +43,24 @@
     <t>l9Sp</t>
   </si>
   <si>
+    <t>l1Sp</t>
+  </si>
+  <si>
     <t>l8Sp</t>
   </si>
   <si>
-    <t>l1Sp</t>
-  </si>
-  <si>
     <t>l6Sp</t>
   </si>
   <si>
+    <t>l7Sp</t>
+  </si>
+  <si>
     <t>l2Sp</t>
   </si>
   <si>
     <t>l3Sp</t>
   </si>
   <si>
-    <t>l7Sp</t>
-  </si>
-  <si>
     <t>l11Sp</t>
   </si>
   <si>
@@ -79,24 +79,24 @@
     <t>TACAG</t>
   </si>
   <si>
+    <t>GACTA</t>
+  </si>
+  <si>
     <t>GCATC</t>
   </si>
   <si>
-    <t>GACTA</t>
-  </si>
-  <si>
     <t>AGCTG</t>
   </si>
   <si>
+    <t>GTGAC</t>
+  </si>
+  <si>
     <t>AGTGC</t>
   </si>
   <si>
     <t>TCACG</t>
   </si>
   <si>
-    <t>GTGAC</t>
-  </si>
-  <si>
     <t>CGATA</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>TGCTG</t>
   </si>
   <si>
+    <t>CTTAT</t>
+  </si>
+  <si>
     <t>CTGCT</t>
   </si>
   <si>
-    <t>CTTAT</t>
-  </si>
-  <si>
     <t>CTGAG</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>TCAAG</t>
   </si>
   <si>
+    <t>TGCTA</t>
+  </si>
+  <si>
     <t>TGGGA</t>
   </si>
   <si>
-    <t>TGCTA</t>
-  </si>
-  <si>
     <t>AATGC</t>
   </si>
   <si>
@@ -151,127 +151,130 @@
     <t>AACTA</t>
   </si>
   <si>
+    <t>ACTGC</t>
+  </si>
+  <si>
+    <t>ACACG</t>
+  </si>
+  <si>
+    <t>CTGGT</t>
+  </si>
+  <si>
+    <t>TTGAT</t>
+  </si>
+  <si>
+    <t>CTGAA</t>
+  </si>
+  <si>
+    <t>TGCGT</t>
+  </si>
+  <si>
+    <t>ACATC</t>
+  </si>
+  <si>
+    <t>CATGT</t>
+  </si>
+  <si>
+    <t>CATAA</t>
+  </si>
+  <si>
+    <t>GATGA</t>
+  </si>
+  <si>
+    <t>CAATA</t>
+  </si>
+  <si>
+    <t>GTTCA</t>
+  </si>
+  <si>
+    <t>GACGA</t>
+  </si>
+  <si>
+    <t>CACTA</t>
+  </si>
+  <si>
+    <t>GTCTA</t>
+  </si>
+  <si>
+    <t>GGCTA</t>
+  </si>
+  <si>
+    <t>GGTGC</t>
+  </si>
+  <si>
+    <t>AGGGC</t>
+  </si>
+  <si>
     <t>ATTGC</t>
   </si>
   <si>
+    <t>AGTGT</t>
+  </si>
+  <si>
+    <t>CCACG</t>
+  </si>
+  <si>
+    <t>TCACT</t>
+  </si>
+  <si>
     <t>TCTCG</t>
   </si>
   <si>
-    <t>ACACG</t>
-  </si>
-  <si>
-    <t>CTGGT</t>
-  </si>
-  <si>
-    <t>TTGAT</t>
-  </si>
-  <si>
-    <t>CTGAA</t>
-  </si>
-  <si>
-    <t>TGCGT</t>
-  </si>
-  <si>
-    <t>ACATC</t>
+    <t>TCACC</t>
+  </si>
+  <si>
+    <t>TCACA</t>
+  </si>
+  <si>
+    <t>ATGAT</t>
+  </si>
+  <si>
+    <t>CTGAC</t>
+  </si>
+  <si>
+    <t>CAGAT</t>
+  </si>
+  <si>
+    <t>GTGAT</t>
+  </si>
+  <si>
+    <t>CTAAT</t>
+  </si>
+  <si>
+    <t>CTGTT</t>
+  </si>
+  <si>
+    <t>GGCGA</t>
+  </si>
+  <si>
+    <t>GGCTG</t>
+  </si>
+  <si>
+    <t>AGATG</t>
+  </si>
+  <si>
+    <t>GTAAC</t>
+  </si>
+  <si>
+    <t>GTTAC</t>
+  </si>
+  <si>
+    <t>GCATG</t>
+  </si>
+  <si>
+    <t>TCATC</t>
+  </si>
+  <si>
+    <t>CCATC</t>
+  </si>
+  <si>
+    <t>GCATA</t>
+  </si>
+  <si>
+    <t>TCCAG</t>
   </si>
   <si>
     <t>TACAT</t>
-  </si>
-  <si>
-    <t>CATAA</t>
-  </si>
-  <si>
-    <t>GATGA</t>
-  </si>
-  <si>
-    <t>CAATA</t>
-  </si>
-  <si>
-    <t>GTTCA</t>
-  </si>
-  <si>
-    <t>GACGA</t>
-  </si>
-  <si>
-    <t>CACTA</t>
-  </si>
-  <si>
-    <t>GGCTA</t>
-  </si>
-  <si>
-    <t>AGTGG</t>
-  </si>
-  <si>
-    <t>GGTGC</t>
-  </si>
-  <si>
-    <t>AGGGC</t>
-  </si>
-  <si>
-    <t>ACTGC</t>
-  </si>
-  <si>
-    <t>AGTGT</t>
-  </si>
-  <si>
-    <t>CCACG</t>
-  </si>
-  <si>
-    <t>TCACT</t>
-  </si>
-  <si>
-    <t>GCACG</t>
-  </si>
-  <si>
-    <t>TCACC</t>
-  </si>
-  <si>
-    <t>TCACA</t>
-  </si>
-  <si>
-    <t>ATGAT</t>
-  </si>
-  <si>
-    <t>CTGAC</t>
-  </si>
-  <si>
-    <t>CAGAT</t>
-  </si>
-  <si>
-    <t>GTGAT</t>
-  </si>
-  <si>
-    <t>CTAAT</t>
-  </si>
-  <si>
-    <t>CTGTT</t>
-  </si>
-  <si>
-    <t>GGCGA</t>
-  </si>
-  <si>
-    <t>GGCTG</t>
-  </si>
-  <si>
-    <t>AGATG</t>
-  </si>
-  <si>
-    <t>GTAAC</t>
-  </si>
-  <si>
-    <t>GTTAC</t>
-  </si>
-  <si>
-    <t>GCATG</t>
-  </si>
-  <si>
-    <t>TCATC</t>
-  </si>
-  <si>
-    <t>GCATA</t>
-  </si>
-  <si>
-    <t>TCCAG</t>
   </si>
   <si>
     <t>CACAG</t>
@@ -656,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,7 +696,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -733,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -773,7 +776,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -813,7 +816,7 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -833,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -853,7 +856,7 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -873,7 +876,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -933,7 +936,7 @@
         <v>30</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -973,7 +976,7 @@
         <v>32</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -993,7 +996,7 @@
         <v>33</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1044,10 +1047,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -1064,10 +1067,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
@@ -1093,7 +1096,7 @@
         <v>38</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1124,10 +1127,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
@@ -1144,10 +1147,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>41</v>
@@ -1184,10 +1187,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
@@ -1204,10 +1207,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
         <v>44</v>
@@ -1224,10 +1227,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
         <v>45</v>
@@ -1244,10 +1247,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
@@ -1264,10 +1267,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -1324,10 +1327,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
         <v>50</v>
@@ -1344,10 +1347,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
         <v>51</v>
@@ -1364,16 +1367,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
         <v>52</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1384,16 +1387,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
         <v>53</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1424,10 +1427,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>55</v>
@@ -1444,10 +1447,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
         <v>56</v>
@@ -1464,10 +1467,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
         <v>57</v>
@@ -1484,10 +1487,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
         <v>58</v>
@@ -1504,10 +1507,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
         <v>59</v>
@@ -1524,10 +1527,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
         <v>60</v>
@@ -1544,10 +1547,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
         <v>61</v>
@@ -1564,10 +1567,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
         <v>62</v>
@@ -1584,10 +1587,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" t="s">
         <v>63</v>
@@ -1604,10 +1607,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
         <v>64</v>
@@ -1624,10 +1627,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D49" t="s">
         <v>65</v>
@@ -1644,10 +1647,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D50" t="s">
         <v>66</v>
@@ -1664,10 +1667,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
         <v>67</v>
@@ -1684,10 +1687,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D52" t="s">
         <v>68</v>
@@ -1704,10 +1707,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
         <v>69</v>
@@ -1724,10 +1727,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
         <v>70</v>
@@ -1844,10 +1847,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
         <v>76</v>
@@ -1864,10 +1867,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D61" t="s">
         <v>77</v>
@@ -1904,10 +1907,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
@@ -1924,10 +1927,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
         <v>80</v>
@@ -1944,10 +1947,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
@@ -1964,10 +1967,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
         <v>82</v>
@@ -1984,10 +1987,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
         <v>83</v>
@@ -2004,10 +2007,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
         <v>84</v>
@@ -2064,10 +2067,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s">
         <v>87</v>
@@ -2076,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2084,16 +2087,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s">
         <v>88</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -2104,10 +2107,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
         <v>89</v>
@@ -2124,10 +2127,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
         <v>90</v>
@@ -2144,10 +2147,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
         <v>91</v>
@@ -2164,10 +2167,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
         <v>92</v>
@@ -2184,10 +2187,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
         <v>93</v>
@@ -2204,10 +2207,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D78" t="s">
         <v>94</v>
@@ -2216,6 +2219,26 @@
         <v>1</v>
       </c>
       <c r="F78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
         <v>2</v>
       </c>
     </row>
